--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1317105053769658</v>
+        <v>0.1029094938796418</v>
       </c>
       <c r="H2" t="n">
-        <v>98.60495393147826</v>
+        <v>55.17619670945673</v>
       </c>
       <c r="I2" t="n">
-        <v>23.02376746647044</v>
+        <v>-34.14705762158022</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07568980066566808</v>
+        <v>0.05046814156701202</v>
       </c>
       <c r="H3" t="n">
-        <v>-35.99868485791928</v>
+        <v>-57.32545990796116</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.287430260856905</v>
+        <v>-0.2936424821544729</v>
       </c>
       <c r="H4" t="n">
-        <v>4.52186188705421</v>
+        <v>-6.780889640570628</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2743899429580817</v>
+        <v>-0.3384204055881737</v>
       </c>
       <c r="H5" t="n">
-        <v>-31.23315249331476</v>
+        <v>15.18601529871754</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1506379886389428</v>
+        <v>0.208212554431696</v>
       </c>
       <c r="H6" t="n">
-        <v>-23.59187726125967</v>
+        <v>5.611675769885228</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2674828195376825</v>
+        <v>0.2709083859036889</v>
       </c>
       <c r="H7" t="n">
-        <v>28.98055706310249</v>
+        <v>30.63236953804124</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09313367176823975</v>
+        <v>0.1113414873493352</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.599301355229642</v>
+        <v>9.269714579722296</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1181778538739618</v>
+        <v>0.1282515833933437</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.564044390236941</v>
+        <v>1.400633536657717</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07538971594896358</v>
+        <v>0.04269980056232787</v>
       </c>
       <c r="H10" t="n">
-        <v>22.70900023482136</v>
+        <v>-30.49914340071808</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01532005323555266</v>
+        <v>0.02188060448003902</v>
       </c>
       <c r="H11" t="n">
-        <v>-69.31703009212707</v>
+        <v>-56.17757206815033</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09550344519347322</v>
+        <v>0.08758475106929371</v>
       </c>
       <c r="H12" t="n">
-        <v>3.172002150355273</v>
+        <v>-5.382532458870395</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07833356540631918</v>
+        <v>0.09943092346378567</v>
       </c>
       <c r="H13" t="n">
-        <v>2.789542557674152</v>
+        <v>30.47355990903425</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2441289499775915</v>
+        <v>0.1948511117687122</v>
       </c>
       <c r="H14" t="n">
-        <v>8.039995914088742</v>
+        <v>-13.76805855561316</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2370137460380193</v>
+        <v>0.2359293311603966</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.794740051962417</v>
+        <v>-4.234910366710644</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1275292228130281</v>
+        <v>0.1179941084073845</v>
       </c>
       <c r="H16" t="n">
-        <v>12.11867076791392</v>
+        <v>3.735773662455097</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1208905977387864</v>
+        <v>0.1218323568263161</v>
       </c>
       <c r="H17" t="n">
-        <v>-19.08713973300539</v>
+        <v>-18.45681427445225</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02596234586160583</v>
+        <v>-0.01299707087588766</v>
       </c>
       <c r="H18" t="n">
-        <v>190.0189153676553</v>
+        <v>-45.18704967858154</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01441526558933307</v>
+        <v>0.02929939039742637</v>
       </c>
       <c r="H19" t="n">
-        <v>-159.5136282504527</v>
+        <v>20.96294842931101</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1325112120068851</v>
+        <v>0.1371809647756392</v>
       </c>
       <c r="H20" t="n">
-        <v>55.78345377380665</v>
+        <v>61.27333046853126</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.119726033686706</v>
+        <v>0.1076300077624839</v>
       </c>
       <c r="H21" t="n">
-        <v>82.91639245021813</v>
+        <v>64.43618929880697</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1900530837763575</v>
+        <v>0.1966239169325799</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.7875243997596183</v>
+        <v>2.642615281383849</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2312101214186293</v>
+        <v>0.2156192224543509</v>
       </c>
       <c r="H23" t="n">
-        <v>7.186959778580464</v>
+        <v>-0.04084257688065751</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03033384439289195</v>
+        <v>-0.04050496729622739</v>
       </c>
       <c r="H24" t="n">
-        <v>697.0909820001907</v>
+        <v>-964.3604463666671</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003986895062305418</v>
+        <v>-0.02155564624548765</v>
       </c>
       <c r="H25" t="n">
-        <v>-82.85746228750669</v>
+        <v>7.316728204337776</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2105928692237883</v>
+        <v>0.1758872547555272</v>
       </c>
       <c r="H26" t="n">
-        <v>2.795260749528071</v>
+        <v>-14.14535410550951</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1834322901036856</v>
+        <v>0.1937367866898035</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.900470677205897</v>
+        <v>0.4418426891824712</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01354028866877412</v>
+        <v>0.04917498039396215</v>
       </c>
       <c r="H28" t="n">
-        <v>-79.76454132647514</v>
+        <v>-26.50981763570431</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05085247579010828</v>
+        <v>0.07370706085546821</v>
       </c>
       <c r="H29" t="n">
-        <v>-46.05346238884021</v>
+        <v>-21.80831574337999</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1029094938796418</v>
+        <v>0.08788012380500777</v>
       </c>
       <c r="H2" t="n">
-        <v>55.17619670945673</v>
+        <v>32.51355987005816</v>
       </c>
       <c r="I2" t="n">
-        <v>-34.14705762158022</v>
+        <v>12.9666078406142</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05046814156701202</v>
+        <v>0.1698029625776104</v>
       </c>
       <c r="H3" t="n">
-        <v>-57.32545990796116</v>
+        <v>43.5809425366606</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2936424821544729</v>
+        <v>-0.3140652136002539</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.780889640570628</v>
+        <v>-14.20746299150609</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3384204055881737</v>
+        <v>-0.4116723672468334</v>
       </c>
       <c r="H5" t="n">
-        <v>15.18601529871754</v>
+        <v>-3.172188440973282</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.208212554431696</v>
+        <v>0.1934721856122315</v>
       </c>
       <c r="H6" t="n">
-        <v>5.611675769885228</v>
+        <v>-1.865083048711867</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2709083859036889</v>
+        <v>0.2476447775230506</v>
       </c>
       <c r="H7" t="n">
-        <v>30.63236953804124</v>
+        <v>19.41462787740396</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1113414873493352</v>
+        <v>0.108905732269689</v>
       </c>
       <c r="H8" t="n">
-        <v>9.269714579722296</v>
+        <v>6.879282507407801</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1282515833933437</v>
+        <v>0.1603927918420133</v>
       </c>
       <c r="H9" t="n">
-        <v>1.400633536657717</v>
+        <v>26.81270887402953</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04269980056232787</v>
+        <v>0.07376548965297174</v>
       </c>
       <c r="H10" t="n">
-        <v>-30.49914340071808</v>
+        <v>20.06530828788271</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02188060448003902</v>
+        <v>0.04866293974294369</v>
       </c>
       <c r="H11" t="n">
-        <v>-56.17757206815033</v>
+        <v>-2.537968190845442</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08758475106929371</v>
+        <v>0.09625283136901765</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.382532458870395</v>
+        <v>3.981561134935238</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09943092346378567</v>
+        <v>0.08314807663501843</v>
       </c>
       <c r="H13" t="n">
-        <v>30.47355990903425</v>
+        <v>9.107158821785363</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1948511117687122</v>
+        <v>0.1934106069158548</v>
       </c>
       <c r="H14" t="n">
-        <v>-13.76805855561316</v>
+        <v>-14.40555828037429</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2359293311603966</v>
+        <v>0.230177361217362</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.234910366710644</v>
+        <v>-6.569668467593867</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1179941084073845</v>
+        <v>0.09854325898070752</v>
       </c>
       <c r="H16" t="n">
-        <v>3.735773662455097</v>
+        <v>-13.36464720518527</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1218323568263161</v>
+        <v>0.124861488119469</v>
       </c>
       <c r="H17" t="n">
-        <v>-18.45681427445225</v>
+        <v>-16.42939707545014</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01299707087588766</v>
+        <v>-0.009381490673663104</v>
       </c>
       <c r="H18" t="n">
-        <v>-45.18704967858154</v>
+        <v>-4.798301517552446</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02929939039742637</v>
+        <v>-0.02703299766879391</v>
       </c>
       <c r="H19" t="n">
-        <v>20.96294842931101</v>
+        <v>-211.6061139342761</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1371809647756392</v>
+        <v>0.152663515104255</v>
       </c>
       <c r="H20" t="n">
-        <v>61.27333046853126</v>
+        <v>79.47499904351368</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1076300077624839</v>
+        <v>0.1072516471118899</v>
       </c>
       <c r="H21" t="n">
-        <v>64.43618929880697</v>
+        <v>63.85813318919866</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1966239169325799</v>
+        <v>0.199689506267373</v>
       </c>
       <c r="H22" t="n">
-        <v>2.642615281383849</v>
+        <v>4.242929788442386</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2156192224543509</v>
+        <v>0.219941229812031</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.04084257688065751</v>
+        <v>1.962801666580485</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04050496729622739</v>
+        <v>0.007493745544609639</v>
       </c>
       <c r="H24" t="n">
-        <v>-964.3604463666671</v>
+        <v>296.9152646016782</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02155564624548765</v>
+        <v>-0.00379867802964669</v>
       </c>
       <c r="H25" t="n">
-        <v>7.316728204337776</v>
+        <v>83.66674307620649</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1758872547555272</v>
+        <v>0.2188546325011767</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.14535410550951</v>
+        <v>6.828018902642608</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1937367866898035</v>
+        <v>0.1926788316990106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4418426891824712</v>
+        <v>-0.1066486457522578</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04917498039396215</v>
+        <v>0.03672226536399072</v>
       </c>
       <c r="H28" t="n">
-        <v>-26.50981763570431</v>
+        <v>-45.11993788692806</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07370706085546821</v>
+        <v>0.09232645547261413</v>
       </c>
       <c r="H29" t="n">
-        <v>-21.80831574337999</v>
+        <v>-2.056044956078971</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>